--- a/conference-app/sample programmes/error checking/incompletesessions.xlsx
+++ b/conference-app/sample programmes/error checking/incompletesessions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -50,9 +50,6 @@
     <t xml:space="preserve">a Carneiro, AB Fourie, The University of Western Australia, Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">a Carneiro</t>
-  </si>
-  <si>
     <t xml:space="preserve">KEYNOTE: Why should we ‘Think Big’ on closure? L Tyler, J Heyes, BHP, Australia</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
     <t xml:space="preserve">Cassia Rooms</t>
   </si>
   <si>
+    <t xml:space="preserve">Pi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Social Aspects and Communities</t>
   </si>
   <si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t xml:space="preserve">BHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUCK</t>
   </si>
   <si>
     <t xml:space="preserve">Closure Planning and Stakeholders</t>
@@ -412,8 +415,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -463,13 +466,11 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
@@ -481,13 +482,13 @@
         <v>43711.375</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -502,15 +503,15 @@
         <v>43713.3958333333</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>2</v>
@@ -522,15 +523,15 @@
         <v>43713.4166666667</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>4</v>
@@ -542,15 +543,15 @@
         <v>43713.3958333333</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>3</v>
@@ -562,15 +563,15 @@
         <v>43713.4166666667</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>4</v>
@@ -582,15 +583,15 @@
         <v>43713.3958333333</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>5</v>
@@ -606,7 +607,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>6</v>
@@ -614,37 +615,37 @@
       <c r="C10" s="3" t="n">
         <v>43711.4375</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="n">
+        <v>43711.4583333333</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="n">
-        <v>43711.4583333333</v>
-      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3" t="n">
         <v>43711.4791666667</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>7</v>
@@ -656,15 +657,15 @@
         <v>43711.4583333333</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>7</v>
@@ -676,15 +677,15 @@
         <v>43711.4791666667</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>8</v>
@@ -692,31 +693,17 @@
       <c r="C14" s="3" t="n">
         <v>43713.4791666667</v>
       </c>
-      <c r="D14" s="3" t="n">
-        <v>43713.4791666667</v>
-      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>43712.4583333333</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>43711.4791666667</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -740,15 +727,15 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -757,22 +744,22 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,22 +770,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>1</v>
@@ -812,28 +799,28 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="I3" s="4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>2</v>
       </c>
@@ -841,25 +828,23 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -882,7 +867,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>53</v>
@@ -914,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>4</v>
       </c>
@@ -934,39 +919,39 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I7" s="4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <v>4</v>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>2</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="I8" s="4" t="n">
         <v>1</v>
@@ -979,6 +964,9 @@
       <c r="B9" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="C9" s="0" t="s">
+        <v>54</v>
+      </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
       </c>
@@ -997,22 +985,22 @@
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>2</v>
